--- a/installationdocs/02.2_Places.xlsx
+++ b/installationdocs/02.2_Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/o_ugur_exeter_ac_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou213\OneDrive - University of Exeter\Desktop\git\metadata-schema\installationdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048A6595D604E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB64C46E-8CAA-4F49-BA59-31A10B700DDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C94D12-8658-46F7-A31E-DBE31A3B98E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="1185" windowWidth="13425" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="754">
   <si>
     <t>Term ID</t>
   </si>
@@ -2284,6 +2284,9 @@
   </si>
   <si>
     <t>Link to ISO 3166-2 subdivision code: ISO 3166-2:ZW</t>
+  </si>
+  <si>
+    <t>access</t>
   </si>
 </sst>
 </file>
@@ -2350,10 +2353,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2619,15 +2618,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2646,8 +2645,11 @@
       <c r="F1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2666,8 +2668,11 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2680,8 +2685,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2694,8 +2702,11 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2708,8 +2719,11 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2722,8 +2736,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2736,8 +2753,11 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2750,8 +2770,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2764,8 +2787,11 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2778,8 +2804,11 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,8 +2821,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2806,8 +2838,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2820,8 +2855,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2834,8 +2872,11 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -2848,8 +2889,11 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2862,8 +2906,11 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2876,8 +2923,11 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2890,8 +2940,11 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -2904,8 +2957,11 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2918,8 +2974,11 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -2932,8 +2991,11 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2946,8 +3008,11 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -2960,8 +3025,11 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -2974,8 +3042,11 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -2988,8 +3059,11 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -3002,8 +3076,11 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -3016,8 +3093,11 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3030,8 +3110,11 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -3044,8 +3127,11 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -3058,8 +3144,11 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -3072,8 +3161,11 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -3086,8 +3178,11 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -3100,8 +3195,11 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -3114,8 +3212,11 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -3128,8 +3229,11 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
@@ -3142,8 +3246,11 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -3156,8 +3263,11 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -3170,8 +3280,11 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -3184,8 +3297,11 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -3198,8 +3314,11 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
@@ -3212,8 +3331,11 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -3226,8 +3348,11 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
@@ -3240,8 +3365,11 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -3254,8 +3382,11 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -3268,8 +3399,11 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
@@ -3282,8 +3416,11 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
@@ -3296,8 +3433,11 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
@@ -3310,8 +3450,11 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>144</v>
       </c>
@@ -3324,8 +3467,11 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
@@ -3338,8 +3484,11 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>150</v>
       </c>
@@ -3352,8 +3501,11 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>153</v>
       </c>
@@ -3366,8 +3518,11 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>156</v>
       </c>
@@ -3380,8 +3535,11 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>159</v>
       </c>
@@ -3394,8 +3552,11 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -3408,8 +3569,11 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -3422,8 +3586,11 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
@@ -3436,8 +3603,11 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -3450,8 +3620,11 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>174</v>
       </c>
@@ -3464,8 +3637,11 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>177</v>
       </c>
@@ -3478,8 +3654,11 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>180</v>
       </c>
@@ -3492,8 +3671,11 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>183</v>
       </c>
@@ -3506,8 +3688,11 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>186</v>
       </c>
@@ -3520,8 +3705,11 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>189</v>
       </c>
@@ -3534,8 +3722,11 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3548,8 +3739,11 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>195</v>
       </c>
@@ -3562,8 +3756,11 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>198</v>
       </c>
@@ -3576,8 +3773,11 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -3590,8 +3790,11 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>204</v>
       </c>
@@ -3604,8 +3807,11 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
@@ -3618,8 +3824,11 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
@@ -3632,8 +3841,11 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>213</v>
       </c>
@@ -3646,8 +3858,11 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>216</v>
       </c>
@@ -3660,8 +3875,11 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
@@ -3674,8 +3892,11 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
@@ -3688,8 +3909,11 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
@@ -3702,8 +3926,11 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>228</v>
       </c>
@@ -3716,8 +3943,11 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
@@ -3730,8 +3960,11 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>234</v>
       </c>
@@ -3744,8 +3977,11 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -3758,8 +3994,11 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>240</v>
       </c>
@@ -3772,8 +4011,11 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
@@ -3786,8 +4028,11 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>246</v>
       </c>
@@ -3800,8 +4045,11 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
@@ -3814,8 +4062,11 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>252</v>
       </c>
@@ -3828,8 +4079,11 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
@@ -3842,8 +4096,11 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>258</v>
       </c>
@@ -3856,8 +4113,11 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>261</v>
       </c>
@@ -3870,8 +4130,11 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>264</v>
       </c>
@@ -3884,8 +4147,11 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>267</v>
       </c>
@@ -3898,8 +4164,11 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>270</v>
       </c>
@@ -3912,8 +4181,11 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>273</v>
       </c>
@@ -3926,8 +4198,11 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>276</v>
       </c>
@@ -3940,8 +4215,11 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>279</v>
       </c>
@@ -3954,8 +4232,11 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>282</v>
       </c>
@@ -3968,8 +4249,11 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>285</v>
       </c>
@@ -3982,8 +4266,11 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>288</v>
       </c>
@@ -3996,8 +4283,11 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>291</v>
       </c>
@@ -4010,8 +4300,11 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>294</v>
       </c>
@@ -4024,8 +4317,11 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>297</v>
       </c>
@@ -4038,8 +4334,11 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>300</v>
       </c>
@@ -4052,8 +4351,11 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>303</v>
       </c>
@@ -4066,8 +4368,11 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>306</v>
       </c>
@@ -4080,8 +4385,11 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>309</v>
       </c>
@@ -4094,8 +4402,11 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>312</v>
       </c>
@@ -4108,8 +4419,11 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>315</v>
       </c>
@@ -4122,8 +4436,11 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>318</v>
       </c>
@@ -4136,8 +4453,11 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>321</v>
       </c>
@@ -4150,8 +4470,11 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>324</v>
       </c>
@@ -4164,8 +4487,11 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>327</v>
       </c>
@@ -4178,8 +4504,11 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>330</v>
       </c>
@@ -4192,8 +4521,11 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>333</v>
       </c>
@@ -4206,8 +4538,11 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>336</v>
       </c>
@@ -4220,8 +4555,11 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>339</v>
       </c>
@@ -4234,8 +4572,11 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>342</v>
       </c>
@@ -4248,8 +4589,11 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>345</v>
       </c>
@@ -4262,8 +4606,11 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>348</v>
       </c>
@@ -4276,8 +4623,11 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>351</v>
       </c>
@@ -4290,8 +4640,11 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>354</v>
       </c>
@@ -4304,8 +4657,11 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>357</v>
       </c>
@@ -4318,8 +4674,11 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>360</v>
       </c>
@@ -4332,8 +4691,11 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>363</v>
       </c>
@@ -4346,8 +4708,11 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>366</v>
       </c>
@@ -4360,8 +4725,11 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>369</v>
       </c>
@@ -4374,8 +4742,11 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>372</v>
       </c>
@@ -4388,8 +4759,11 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>375</v>
       </c>
@@ -4402,8 +4776,11 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>378</v>
       </c>
@@ -4416,8 +4793,11 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>381</v>
       </c>
@@ -4430,8 +4810,11 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>384</v>
       </c>
@@ -4444,8 +4827,11 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>387</v>
       </c>
@@ -4458,8 +4844,11 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>390</v>
       </c>
@@ -4472,8 +4861,11 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>393</v>
       </c>
@@ -4486,8 +4878,11 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>396</v>
       </c>
@@ -4500,8 +4895,11 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>399</v>
       </c>
@@ -4514,8 +4912,11 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>402</v>
       </c>
@@ -4528,8 +4929,11 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>405</v>
       </c>
@@ -4542,8 +4946,11 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>408</v>
       </c>
@@ -4556,8 +4963,11 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>411</v>
       </c>
@@ -4570,8 +4980,11 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>414</v>
       </c>
@@ -4584,8 +4997,11 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>417</v>
       </c>
@@ -4598,8 +5014,11 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>420</v>
       </c>
@@ -4612,8 +5031,11 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>423</v>
       </c>
@@ -4626,8 +5048,11 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>426</v>
       </c>
@@ -4640,8 +5065,11 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>429</v>
       </c>
@@ -4654,8 +5082,11 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>432</v>
       </c>
@@ -4668,8 +5099,11 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>435</v>
       </c>
@@ -4682,8 +5116,11 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>438</v>
       </c>
@@ -4696,8 +5133,11 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>441</v>
       </c>
@@ -4710,8 +5150,11 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>444</v>
       </c>
@@ -4724,8 +5167,11 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>447</v>
       </c>
@@ -4738,8 +5184,11 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>450</v>
       </c>
@@ -4752,8 +5201,11 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>453</v>
       </c>
@@ -4766,8 +5218,11 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>456</v>
       </c>
@@ -4780,8 +5235,11 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>459</v>
       </c>
@@ -4794,8 +5252,11 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -4808,8 +5269,11 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -4822,8 +5286,11 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -4836,8 +5303,11 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -4850,8 +5320,11 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -4864,8 +5337,11 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>477</v>
       </c>
@@ -4878,8 +5354,11 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>480</v>
       </c>
@@ -4892,8 +5371,11 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>483</v>
       </c>
@@ -4906,8 +5388,11 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>486</v>
       </c>
@@ -4920,8 +5405,11 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>489</v>
       </c>
@@ -4934,8 +5422,11 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>492</v>
       </c>
@@ -4948,8 +5439,11 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -4962,8 +5456,11 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>498</v>
       </c>
@@ -4976,8 +5473,11 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>501</v>
       </c>
@@ -4990,8 +5490,11 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>504</v>
       </c>
@@ -5004,8 +5507,11 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>507</v>
       </c>
@@ -5018,8 +5524,11 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>510</v>
       </c>
@@ -5032,8 +5541,11 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>513</v>
       </c>
@@ -5046,8 +5558,11 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>516</v>
       </c>
@@ -5060,8 +5575,11 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>519</v>
       </c>
@@ -5074,8 +5592,11 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>522</v>
       </c>
@@ -5088,8 +5609,11 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>525</v>
       </c>
@@ -5102,8 +5626,11 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>528</v>
       </c>
@@ -5116,8 +5643,11 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>531</v>
       </c>
@@ -5130,8 +5660,11 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>534</v>
       </c>
@@ -5144,8 +5677,11 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>537</v>
       </c>
@@ -5158,8 +5694,11 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>540</v>
       </c>
@@ -5172,8 +5711,11 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>543</v>
       </c>
@@ -5186,8 +5728,11 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>546</v>
       </c>
@@ -5200,8 +5745,11 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>549</v>
       </c>
@@ -5214,8 +5762,11 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>552</v>
       </c>
@@ -5228,8 +5779,11 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>555</v>
       </c>
@@ -5242,8 +5796,11 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>558</v>
       </c>
@@ -5256,8 +5813,11 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>561</v>
       </c>
@@ -5270,8 +5830,11 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>564</v>
       </c>
@@ -5284,8 +5847,11 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>567</v>
       </c>
@@ -5298,8 +5864,11 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>570</v>
       </c>
@@ -5312,8 +5881,11 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>573</v>
       </c>
@@ -5326,8 +5898,11 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>576</v>
       </c>
@@ -5340,8 +5915,11 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>579</v>
       </c>
@@ -5354,8 +5932,11 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>582</v>
       </c>
@@ -5368,8 +5949,11 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>585</v>
       </c>
@@ -5382,8 +5966,11 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>588</v>
       </c>
@@ -5396,8 +5983,11 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>591</v>
       </c>
@@ -5410,8 +6000,11 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>594</v>
       </c>
@@ -5424,8 +6017,11 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>597</v>
       </c>
@@ -5438,8 +6034,11 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>600</v>
       </c>
@@ -5452,8 +6051,11 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>603</v>
       </c>
@@ -5466,8 +6068,11 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>606</v>
       </c>
@@ -5480,8 +6085,11 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>609</v>
       </c>
@@ -5494,8 +6102,11 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>612</v>
       </c>
@@ -5508,8 +6119,11 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>615</v>
       </c>
@@ -5522,8 +6136,11 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>618</v>
       </c>
@@ -5536,8 +6153,11 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>621</v>
       </c>
@@ -5550,8 +6170,11 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>624</v>
       </c>
@@ -5564,8 +6187,11 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>627</v>
       </c>
@@ -5578,8 +6204,11 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>630</v>
       </c>
@@ -5592,8 +6221,11 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>633</v>
       </c>
@@ -5606,8 +6238,11 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>636</v>
       </c>
@@ -5620,8 +6255,11 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>639</v>
       </c>
@@ -5634,8 +6272,11 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>642</v>
       </c>
@@ -5648,8 +6289,11 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>645</v>
       </c>
@@ -5662,8 +6306,11 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>648</v>
       </c>
@@ -5676,8 +6323,11 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -5690,8 +6340,11 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>654</v>
       </c>
@@ -5704,8 +6357,11 @@
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>657</v>
       </c>
@@ -5718,8 +6374,11 @@
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>660</v>
       </c>
@@ -5732,8 +6391,11 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>663</v>
       </c>
@@ -5746,8 +6408,11 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>666</v>
       </c>
@@ -5760,8 +6425,11 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>669</v>
       </c>
@@ -5774,8 +6442,11 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>672</v>
       </c>
@@ -5788,8 +6459,11 @@
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>675</v>
       </c>
@@ -5802,8 +6476,11 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>678</v>
       </c>
@@ -5816,8 +6493,11 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>681</v>
       </c>
@@ -5830,8 +6510,11 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>684</v>
       </c>
@@ -5844,8 +6527,11 @@
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>687</v>
       </c>
@@ -5858,8 +6544,11 @@
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>690</v>
       </c>
@@ -5872,8 +6561,11 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>693</v>
       </c>
@@ -5886,8 +6578,11 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>696</v>
       </c>
@@ -5900,8 +6595,11 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>699</v>
       </c>
@@ -5914,8 +6612,11 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>702</v>
       </c>
@@ -5928,8 +6629,11 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>705</v>
       </c>
@@ -5942,8 +6646,11 @@
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>708</v>
       </c>
@@ -5956,8 +6663,11 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>711</v>
       </c>
@@ -5970,8 +6680,11 @@
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>714</v>
       </c>
@@ -5984,8 +6697,11 @@
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>717</v>
       </c>
@@ -5998,8 +6714,11 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>720</v>
       </c>
@@ -6012,8 +6731,11 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>723</v>
       </c>
@@ -6026,8 +6748,11 @@
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>726</v>
       </c>
@@ -6040,8 +6765,11 @@
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>729</v>
       </c>
@@ -6054,8 +6782,11 @@
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>732</v>
       </c>
@@ -6068,8 +6799,11 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>735</v>
       </c>
@@ -6082,8 +6816,11 @@
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>738</v>
       </c>
@@ -6096,8 +6833,11 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>741</v>
       </c>
@@ -6110,8 +6850,11 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>744</v>
       </c>
@@ -6124,8 +6867,11 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>747</v>
       </c>
@@ -6138,8 +6884,11 @@
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>750</v>
       </c>
@@ -6152,6 +6901,9 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
+      <c r="G251">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
